--- a/tut05/output/0401ME29.xlsx
+++ b/tut05/output/0401ME29.xlsx
@@ -550,22 +550,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7.551020408163265</v>
+        <v>7.55</v>
       </c>
       <c r="C6" t="n">
-        <v>7.136363636363637</v>
+        <v>7.14</v>
       </c>
       <c r="D6" t="n">
-        <v>8.787234042553191</v>
+        <v>8.789999999999999</v>
       </c>
       <c r="E6" t="n">
-        <v>8.530612244897959</v>
+        <v>8.529999999999999</v>
       </c>
       <c r="F6" t="n">
-        <v>8.434782608695652</v>
+        <v>8.43</v>
       </c>
       <c r="G6" t="n">
-        <v>8.478260869565217</v>
+        <v>8.48</v>
       </c>
       <c r="H6" t="n">
         <v>9.85</v>
@@ -612,28 +612,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7.551020408163265</v>
+        <v>7.55</v>
       </c>
       <c r="C8" t="n">
-        <v>7.354838709677419</v>
+        <v>7.35</v>
       </c>
       <c r="D8" t="n">
-        <v>7.835714285714285</v>
+        <v>7.84</v>
       </c>
       <c r="E8" t="n">
-        <v>8.015873015873016</v>
+        <v>8.02</v>
       </c>
       <c r="F8" t="n">
-        <v>8.097872340425532</v>
+        <v>8.1</v>
       </c>
       <c r="G8" t="n">
-        <v>8.160142348754448</v>
+        <v>8.16</v>
       </c>
       <c r="H8" t="n">
-        <v>8.370716510903426</v>
+        <v>8.369999999999999</v>
       </c>
       <c r="I8" t="n">
-        <v>8.434903047091412</v>
+        <v>8.43</v>
       </c>
     </row>
   </sheetData>
